--- a/Texts/Город Сокровищ/Все персонажи/Зигзагун.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Зигзагун.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -121,6 +121,36 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàâåñîïå áôäåó âåòåìï...\nÂïó áú é íîå ò âàíé ðïêóé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve got a bad feeling about the\n[CS:N]Sneasel[CR] at the other table for some reason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As soon as he came into the\nstore, he yelled at me, \"Don\'t just loiter!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s OK to take your time and\nbrowse a bit, though.[K] Isn\'t it?</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не знаю почему, но мне не\nнравится [CS:N]Снизел[CR] за соседним столиком.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но в том, чтобы побродить\nтуда-сюда нет ничего такого.[K] Так ведь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå èîàý ðïœåíô, îï íîå îå\nîñàâéóòÿ [CS:N]Òîéèåì[CR] èà òïòåäîéí òóïìéëïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî èàšæì òýäà é óôó çå îàœàì\nîà íåîÿ ëñéœàóû: \"Öâàóéó òìïîÿóûòÿ áåè\näåìà!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï â óïí, œóïáú ðïáñïäéóû\nóôäà-òýäà îåó îéœåãï óàëïãï.[K] Óàë âåäû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он зашёл сюда и тут же начал\nна меня кричать: \"Хватит слоняться без\nдела!\"</t>
   </si>
 </sst>
 </file>
@@ -533,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,6 +725,52 @@
         <v>33</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4">
+        <v>258</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>267</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8">
+        <v>270</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Зигзагун.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Зигзагун.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Он зашёл сюда и тут же начал\nна меня кричать: \"Хватит слоняться без\nдела!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browsing is just relaxing!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ходьба расслабляет!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïäûáà ñàòòìàáìÿåó!</t>
   </si>
 </sst>
 </file>
@@ -563,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,6 +783,23 @@
         <v>42</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4">
+        <v>239</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Зигзагун.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Зигзагун.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -163,6 +163,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Öïäûáà ñàòòìàáìÿåó!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You were out on some kind of\njourney, weren\'t you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I just got back from a long\njourney myself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я тоже не так давно вернулся из\nзатяжного путешествия.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы куда-то путешествовали, да?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú ëôäà-óï ðôóåšåòóâïâàìé, äà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óïçå îå óàë äàâîï âåñîôìòÿ éè\nèàóÿçîïãï ðôóåšåòóâéÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder where I\'ll go\nexploring next…</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2205.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, куда я отправлюсь\nна вылазку в следующий раз...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, ëôäà ÿ ïóðñàâìýòû\nîà âúìàèëô â òìåäôýþéê ñàè...</t>
   </si>
 </sst>
 </file>
@@ -575,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,20 +817,69 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="10">
         <v>239</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="11" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4">
+        <v>217</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8">
+        <v>220</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="4">
+        <v>198</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Зигзагун.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Зигзагун.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -196,6 +196,120 @@
   </si>
   <si>
     <t xml:space="preserve"> Éîóåñåòîï, ëôäà ÿ ïóðñàâìýòû\nîà âúìàèëô â òìåäôýþéê ñàè...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> While I was out on an\nexploration, something impossible happened\nto the world... Or so I hear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/P01P04A/us0104.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда я был на вылазке, в мире\nслучилось что-то невероятное... Так мне\nсказали.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà ÿ áúì îà âúìàèëå, â íéñå\nòìôœéìïòû œóï-óï îåâåñïÿóîïå... Óàë íîå\nòëàèàìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s treasure everywhere!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3106.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сокровища есть везде!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òïëñïâéþà åòóû âåèäå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It looks like the path enters a\ncave from here.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P22A/us3102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, дальше путь ведёт в\nпещеру.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, äàìûšå ðôóû âåäæó â\nðåþåñô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It looks like [CS:N]Sneasel[CR] was\nfirst heading for the 5th Station Clearing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/D73P24A/us3102.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кажется, [CS:N]Снизел[CR] первым пошёл к\nПоляне 5-го Перехода.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàçåóòÿ, [CS:N]Òîéèåì[CR] ðåñâúí ðïšæì ë\nÐïìÿîå 5-ãï Ðåñåöïäà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It seems like the trouble at the\n5th Station Clearing was caused by [CS:N]Sneasel[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Sneasel[CR]\'s pretty selfish, huh...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wish he\'d pay more attention\nto his surroundings…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, все проблемы на Поляне\n5-го Перехода случились из-за [CS:N]Снизела[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Снизел[CR] такой эгоистичный, да?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хотелось бы, чтобы он обращал\nбольше внимания на окружение...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, âòå ðñïáìåíú îà Ðïìÿîå\n5-ãï Ðåñåöïäà òìôœéìéòû éè-èà [CS:N]Òîéèåìà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Òîéèåì[CR] óàëïê üãïéòóéœîúê, äà?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïóåìïòû áú, œóïáú ïî ïáñàþàì\náïìûšå âîéíàîéÿ îà ïëñôçåîéå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Psst...hey! Did you find the\nSecret Room yet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s rumored that there is some\nreally incredible treasure hiding in the\nSecret Room!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> According to [CS:N]Shaymin[CR], it seems\nthat the Secret Room isn\'t actually in a fixed\nlocation…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'d be great if you happened\nacross it by chance!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P27A/us3108.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Псс... эй! Вы уже находили\nСекретную Комнату?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, что в Секретной\nКомнате находится удивительное сокровище!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Судя по тому, что говорят\n[CS:N]Шеймины[CR], Секретная Комната может быть\nгде угодно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вот будет здорово случайно\nнаткнуться на неё!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðòò... üê! Âú ôçå îàöïäéìé\nÒåëñåóîôý Ëïíîàóô?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, œóï â Òåëñåóîïê\nËïíîàóå îàöïäéóòÿ ôäéâéóåìûîïå òïëñïâéþå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òôäÿ ðï óïíô, œóï ãïâïñÿó\n[CS:N]Šåêíéîú[CR], Òåëñåóîàÿ Ëïíîàóà íïçåó áúóû\nãäå ôãïäîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïó áôäåó èäïñïâï òìôœàêîï\nîàóëîôóûòÿ îà îåæ!</t>
   </si>
 </sst>
 </file>
@@ -226,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -289,11 +403,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -326,6 +449,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -608,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,20 +1001,191 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="10">
         <v>198</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="11" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="10">
+        <v>179</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="10">
+        <v>160</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="10">
+        <v>141</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="12">
+        <v>128</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14">
+        <v>109</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>112</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8">
+        <v>115</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="4">
+        <v>87</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>90</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>93</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>96</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Зигзагун.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Зигзагун.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -310,6 +310,78 @@
   </si>
   <si>
     <t xml:space="preserve"> Âïó áôäåó èäïñïâï òìôœàêîï\nîàóëîôóûòÿ îà îåæ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yay! Hooray!\nWe\'ve reached the summit!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/D73P31A/us3103.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I joined up with [CS:N]Heracross[CR] at the\n7th Station Clearing, and we were climbing\ntogether. It was such fun!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He kept yelling, \"Whooooa!\"\nJust watching it was so much fun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve heard it so many times,\nI can imitate it. Ha ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да! Урааа! Мы достигли вершины!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я встретил [CS:N]Геракросса[CR] на Поляне\n7-го Перехода и мы пошли вместе. Это было\nтак весело!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он постоянно орал: \"Ваааааау!\"\nМне было так весело это наблюдать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я слышал этот крик столько раз,\nчто смогу в точности повторить его.\nХа-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà! Ôñààà! Íú äïòóéãìé âåñšéîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âòóñåóéì [CS:N]Ãåñàëñïòòà[CR] îà Ðïìÿîå\n7-ãï Ðåñåöïäà é íú ðïšìé âíåòóå. Üóï áúìï\nóàë âåòåìï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî ðïòóïÿîîï ïñàì: \"Âààààààô!\"\nÍîå áúìï óàë âåòåìï üóï îàáìýäàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìúšàì üóïó ëñéë òóïìûëï ñàè,\nœóï òíïãô â óïœîïòóé ðïâóïñéóû åãï.\nÖà-öà-öà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us0202.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us0302.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us0402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Sky Peak[CR] was so much fun…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder where I\'ll explore\nnext time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/P01P04A/us2004.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне так понравился [CS:P]Небесный\nПик[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, какое место я буду\nисследовать в следующий раз.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå óàë ðïîñàâéìòÿ [CS:P]Îåáåòîúê\nÐéë[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, ëàëïå íåòóï ÿ áôäô\néòòìåäïâàóû â òìåäôýþéê ñàè.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/P01P04A/us2104.ssb </t>
   </si>
 </sst>
 </file>
@@ -743,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,17 +1247,120 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8">
         <v>96</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="9" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="4">
+        <v>54</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="4">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="4">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="8">
+        <v>63</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="4">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="4">
+        <v>41</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Зигзагун.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Зигзагун.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -382,6 +382,21 @@
   </si>
   <si>
     <t xml:space="preserve">SCRIPT/P01P04A/us2104.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve decided to team up with\n[CS:N]Heracross[CR] and explore all over the world! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2204.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я решил объединиться с\n[CS:N]Геракроссом[CR] и исследовать весь мир! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ñåšéì ïáùåäéîéóûòÿ ò\n[CS:N]Ãåñàëñïòòïí[CR] é éòòìåäïâàóû âåòû íéñ! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2304.ssb</t>
   </si>
 </sst>
 </file>
@@ -815,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,20 +1362,42 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="8">
         <v>41</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="9" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="4">
+        <v>18</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
